--- a/front-end/src/data/dummyData.xlsx
+++ b/front-end/src/data/dummyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wina/광운대학교/졸업작품/개인코드/test/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CC3BA5-EFE8-C047-9094-2E33944E5A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FDF9B2-B949-5B4D-BE32-A6D11BA322F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41780" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,9 +889,11 @@
     <v>Powered by Refinitiv</v>
     <v>299.29000000000002</v>
     <v>152.37</v>
-    <v>2.4275000000000002</v>
-    <v>1.2749999999999999</v>
-    <v>6.888E-3</v>
+    <v>2.42</v>
+    <v>4.01</v>
+    <v>2.1154000000000003E-2</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-3.6159999999999995E-4</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. This segment also includes sales of used vehicles, non-warranty after-sales vehicle services, body shop and parts, paid supercharging, vehicle insurance and retail merchandise. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. The energy generation and storage segment includes the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
     <v>140473</v>
@@ -899,24 +901,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>189.22</v>
+    <v>194.12</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45329.659335103905</v>
+    <v>45331.877858286716</v>
     <v>0</v>
-    <v>182.68</v>
-    <v>593565422625</v>
+    <v>189.48</v>
+    <v>616479900000</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>188.07</v>
-    <v>43.046900000000001</v>
-    <v>185.1</v>
-    <v>186.375</v>
+    <v>190.18</v>
+    <v>44.084099999999999</v>
+    <v>189.56</v>
+    <v>193.57</v>
+    <v>193.5</v>
     <v>3184791000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>46135233</v>
-    <v>112145602</v>
+    <v>84476347</v>
+    <v>110898902</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -940,9 +943,11 @@
     <v>Powered by Refinitiv</v>
     <v>199.62</v>
     <v>143.9</v>
-    <v>1.3127</v>
-    <v>0.44500000000000001</v>
-    <v>2.3510000000000002E-3</v>
+    <v>1.3077000000000001</v>
+    <v>0.77</v>
+    <v>4.0939999999999995E-3</v>
+    <v>-0.32</v>
+    <v>-1.694E-3</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company's product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. The Company's products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, iPad Pro, iPad Air, iPad, iPad mini, Apple Watch Series 9, AirPods, AirPods Pro, AirPods Max and HomePod.</v>
     <v>161000</v>
@@ -950,24 +955,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>191.03</v>
+    <v>189.99</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45329.659347013279</v>
+    <v>45331.947312997654</v>
     <v>3</v>
-    <v>188.61</v>
-    <v>2930019520600</v>
+    <v>188</v>
+    <v>2916199000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>190.51</v>
-    <v>29.4541</v>
-    <v>189.3</v>
-    <v>189.745</v>
+    <v>188.65</v>
+    <v>29.264299999999999</v>
+    <v>188.08</v>
+    <v>188.85</v>
+    <v>188.53</v>
     <v>15441880000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>15346475</v>
-    <v>58723492</v>
+    <v>45155216</v>
+    <v>56863407</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -1009,11 +1015,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>415.32</v>
+    <v>420.82</v>
     <v>245.61</v>
-    <v>0.89449999999999996</v>
-    <v>5.9382999999999999</v>
-    <v>1.4644999999999998E-2</v>
+    <v>0.89710000000000001</v>
+    <v>6.44</v>
+    <v>1.5550999999999999E-2</v>
+    <v>0.54</v>
+    <v>1.2839999999999998E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -1021,25 +1029,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>412.42989999999998</v>
+    <v>420.82</v>
     <v>9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45329.659331735937</v>
+    <v>45331.947313055469</v>
     <v>10</v>
-    <v>407.4</v>
-    <v>3057091651738</v>
+    <v>415.09</v>
+    <v>3124870000000</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>407.5</v>
-    <v>36.672499999999999</v>
-    <v>405.49</v>
-    <v>411.42829999999998</v>
+    <v>415.25</v>
+    <v>37.452100000000002</v>
+    <v>414.11</v>
+    <v>420.55</v>
+    <v>421.09</v>
     <v>7430436000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>6872853</v>
-    <v>25245613</v>
+    <v>22032844</v>
+    <v>25054561</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1063,9 +1072,11 @@
     <v>Powered by Refinitiv</v>
     <v>155.19999999999999</v>
     <v>88.86</v>
-    <v>1.0620000000000001</v>
-    <v>0.67</v>
-    <v>4.6080000000000001E-3</v>
+    <v>1.0648</v>
+    <v>3</v>
+    <v>2.0377999999999997E-2</v>
+    <v>-0.12</v>
+    <v>-7.9880000000000012E-4</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
     <v>182502</v>
@@ -1073,24 +1084,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>146.505</v>
+    <v>150.69499999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45329.659344142972</v>
+    <v>45331.89157686328</v>
     <v>13</v>
-    <v>145.21029999999999</v>
-    <v>1799024000000</v>
+    <v>147.43</v>
+    <v>1859436000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>146</v>
-    <v>25.060199999999998</v>
-    <v>145.41</v>
-    <v>146.08000000000001</v>
+    <v>147.94999999999999</v>
+    <v>25.372199999999999</v>
+    <v>147.22</v>
+    <v>150.22</v>
+    <v>150.1</v>
     <v>12433000000</v>
     <v>GOOG</v>
     <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>5594778</v>
-    <v>21889056</v>
+    <v>21877693</v>
+    <v>21914306</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -1106,7 +1118,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>10</v>
     <v>en</v>
     <v>a1slm7</v>
     <v>268435456</v>
@@ -1114,9 +1126,11 @@
     <v>Powered by Refinitiv</v>
     <v>485.96</v>
     <v>167.66</v>
-    <v>1.1719999999999999</v>
-    <v>13.323</v>
-    <v>2.9298999999999999E-2</v>
+    <v>1.1862999999999999</v>
+    <v>-1.89</v>
+    <v>-4.0210000000000003E-3</v>
+    <v>-0.01</v>
+    <v>-2.1359999999999999E-5</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technology that helps people connect and share, find communities, and grow businesses. The Company’s products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) and mixed reality (MR) headsets, and wearables. It operates through two segments: Family of Apps (FoA) and Reality Labs (RL). The FoA segment includes Facebook, Instagram, Messenger, Threads and WhatsApp. The RL includes augmented, mixed and virtual reality related consumer hardware, software, and content. Instagram is a place where people and creators can connect and express themselves through photos, video, and private messaging, and discover and shop from their favorite businesses. Threads is an application for text-based updates and public conversations. Its RL product offerings in VR include Meta Quest devices, and software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
     <v>67317</v>
@@ -1124,24 +1138,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>470.91</v>
+    <v>473.59</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45329.659357013283</v>
+    <v>45331.954472997655</v>
     <v>16</v>
-    <v>456.1773</v>
-    <v>1159266000000</v>
+    <v>467.46499999999997</v>
+    <v>1193402000000</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>458</v>
-    <v>30.589099999999998</v>
-    <v>454.72</v>
-    <v>468.04300000000001</v>
+    <v>472.95</v>
+    <v>31.617000000000001</v>
+    <v>470</v>
+    <v>468.11</v>
+    <v>468.1</v>
     <v>2549405000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>9185315</v>
-    <v>20955564</v>
+    <v>18413137</v>
+    <v>21251076</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1157,7 +1172,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>10</v>
     <v>en</v>
     <v>a1ygoc</v>
     <v>268435456</v>
@@ -1165,9 +1180,11 @@
     <v>Powered by Refinitiv</v>
     <v>579.64</v>
     <v>285.33010000000002</v>
-    <v>1.2146999999999999</v>
-    <v>8.6950000000000003</v>
-    <v>1.5642E-2</v>
+    <v>1.2094</v>
+    <v>2.79</v>
+    <v>4.9950000000000003E-3</v>
+    <v>5.0000000000000001E-3</v>
+    <v>8.9080000000000001E-6</v>
     <v>USD</v>
     <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
     <v>13000</v>
@@ -1175,24 +1192,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>565.48</v>
+    <v>566</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45329.659324120315</v>
+    <v>45331.97259493047</v>
     <v>19</v>
-    <v>554.98</v>
-    <v>244325251170</v>
+    <v>558.1</v>
+    <v>242916600000</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>558.16</v>
-    <v>46.2515</v>
-    <v>555.88</v>
-    <v>564.57500000000005</v>
+    <v>565</v>
+    <v>46.471899999999998</v>
+    <v>558.53</v>
+    <v>561.32000000000005</v>
+    <v>561.32500000000005</v>
     <v>432759600</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>1013672</v>
-    <v>6404472</v>
+    <v>3055698</v>
+    <v>6366710</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -1208,7 +1226,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>10</v>
     <v>en</v>
     <v>a1yjxm</v>
     <v>268435456</v>
@@ -1216,9 +1234,11 @@
     <v>Powered by Refinitiv</v>
     <v>128.68</v>
     <v>88.66</v>
-    <v>1.1068</v>
-    <v>0.72</v>
-    <v>7.0169999999999998E-3</v>
+    <v>1.1064000000000001</v>
+    <v>0.73</v>
+    <v>7.0350000000000005E-3</v>
+    <v>-0.01</v>
+    <v>-9.569E-5</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>83700</v>
@@ -1226,24 +1246,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>103.71</v>
+    <v>104.94</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45329.659347372653</v>
+    <v>45331.905346492968</v>
     <v>22</v>
-    <v>102.38</v>
-    <v>156557556260</v>
+    <v>103.33</v>
+    <v>158330300000</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>102.52</v>
-    <v>29.959199999999999</v>
-    <v>102.61</v>
-    <v>103.33</v>
+    <v>103.8</v>
+    <v>30.297899999999998</v>
+    <v>103.77</v>
+    <v>104.5</v>
+    <v>104.49</v>
     <v>1515122000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>1859384</v>
-    <v>9061031</v>
+    <v>5449022</v>
+    <v>8896143</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -1254,12 +1275,12 @@
     <v>Learn more on Bing</v>
   </rv>
   <rv s="6">
-    <v>10</v>
+    <v>11</v>
     <v>KakaoBank Corp. (XKRX:323410)</v>
     <v>2</v>
-    <v>11</v>
+    <v>12</v>
     <v>Finance</v>
-    <v>12</v>
+    <v>13</v>
     <v>en</v>
     <v>c2wb77</v>
     <v>268435456</v>
@@ -1267,8 +1288,8 @@
     <v>Powered by Refinitiv</v>
     <v>31500</v>
     <v>17970</v>
-    <v>1100</v>
-    <v>4.0293000000000002E-2</v>
+    <v>700</v>
+    <v>2.4648E-2</v>
     <v>KRW</v>
     <v>KakaoBank Corp is a Korea-based company principally engaged in the Internet banking business. The Company operates its business into two segments. The Banking Business Segment is engaged in the provision of deposit, loan, foreign currency remittance and payment settlement services. The Platform Business is engaged in the provision of stock accounts opening, loans from affiliates recommending and affiliated credit cards services.</v>
     <v>1506</v>
@@ -1276,24 +1297,24 @@
     <v>XKRX</v>
     <v>XKRX</v>
     <v>5F, S Dong, H Square, 231, Pangyoyeok-ro, Bundang-gu, SEONGNAM, GYEONGGI-DO, 13494 KR</v>
-    <v>31050</v>
+    <v>29750</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45329.378472222219</v>
+    <v>45330.378472222219</v>
     <v>25</v>
-    <v>27950</v>
-    <v>13113980000000</v>
+    <v>28250</v>
+    <v>13876980000000</v>
     <v>KakaoBank Corp.</v>
     <v>KakaoBank Corp.</v>
-    <v>28000</v>
-    <v>49.37</v>
-    <v>27300</v>
     <v>28400</v>
+    <v>51.36</v>
+    <v>28400</v>
+    <v>29100</v>
     <v>476872100</v>
     <v>323410</v>
     <v>KakaoBank Corp. (XKRX:323410)</v>
-    <v>6633267</v>
-    <v>1222450</v>
+    <v>2467820</v>
+    <v>1880980</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -1325,6 +1346,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1345,6 +1368,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1384,6 +1408,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1405,6 +1431,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1461,7 +1488,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1472,13 +1499,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1505,7 +1535,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="43">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1516,13 +1546,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1594,7 +1627,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="13">
+  <spbData count="14">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -1632,13 +1665,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -1678,9 +1717,22 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="8">
       <v>Powered by Refinitiv</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -1708,7 +1760,7 @@
       <v>9</v>
       <v>4</v>
     </spb>
-    <spb s="4">
+    <spb s="10">
       <v>Delayed 20 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
@@ -1720,7 +1772,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -1758,6 +1810,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1765,6 +1820,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -1799,6 +1857,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -1823,6 +1884,13 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2936,7 +3004,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" customHeight="1"/>
@@ -3599,11 +3667,11 @@
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" ref="C2">_FV(A2,"Price")</f>
-        <v>186.375</v>
+        <v>193.57</v>
       </c>
       <c r="D2" s="9" cm="1">
         <f t="array" ref="D2">_FV(A2,"Change (%)",TRUE)</f>
-        <v>6.888E-3</v>
+        <v>2.1154000000000003E-2</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -3616,11 +3684,11 @@
       </c>
       <c r="C3" s="5" cm="1">
         <f t="array" ref="C3">_FV(A3,"Price")</f>
-        <v>189.745</v>
+        <v>188.85</v>
       </c>
       <c r="D3" s="11" cm="1">
         <f t="array" ref="D3">_FV(A3,"Change (%)",TRUE)</f>
-        <v>2.3510000000000002E-3</v>
+        <v>4.0939999999999995E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -3632,11 +3700,11 @@
       </c>
       <c r="C4" s="5" cm="1">
         <f t="array" ref="C4">_FV(A4,"Price")</f>
-        <v>411.42829999999998</v>
+        <v>420.55</v>
       </c>
       <c r="D4" s="11" cm="1">
         <f t="array" ref="D4">_FV(A4,"Change (%)",TRUE)</f>
-        <v>1.4644999999999998E-2</v>
+        <v>1.5550999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -3648,11 +3716,11 @@
       </c>
       <c r="C5" s="5" cm="1">
         <f t="array" ref="C5">_FV(A5,"Price")</f>
-        <v>146.08000000000001</v>
+        <v>150.22</v>
       </c>
       <c r="D5" s="11" cm="1">
         <f t="array" ref="D5">_FV(A5,"Change (%)",TRUE)</f>
-        <v>4.6080000000000001E-3</v>
+        <v>2.0377999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
@@ -3664,11 +3732,11 @@
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_FV(A6,"Price")</f>
-        <v>468.04300000000001</v>
+        <v>468.11</v>
       </c>
       <c r="D6" s="11" cm="1">
         <f t="array" ref="D6">_FV(A6,"Change (%)",TRUE)</f>
-        <v>2.9298999999999999E-2</v>
+        <v>-4.0210000000000003E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -3680,11 +3748,11 @@
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" ref="C7">_FV(A7,"Price")</f>
-        <v>564.57500000000005</v>
+        <v>561.32000000000005</v>
       </c>
       <c r="D7" s="11" cm="1">
         <f t="array" ref="D7">_FV(A7,"Change (%)",TRUE)</f>
-        <v>1.5642E-2</v>
+        <v>4.9950000000000003E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -3696,11 +3764,11 @@
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" ref="C8">_FV(A8,"Price")</f>
-        <v>103.33</v>
+        <v>104.5</v>
       </c>
       <c r="D8" s="11" cm="1">
         <f t="array" ref="D8">_FV(A8,"Change (%)",TRUE)</f>
-        <v>7.0169999999999998E-3</v>
+        <v>7.0350000000000005E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="46" thickBot="1">
@@ -3712,11 +3780,11 @@
       </c>
       <c r="C9" s="14" cm="1">
         <f t="array" ref="C9">_FV(A9,"Price")</f>
-        <v>28400</v>
+        <v>29100</v>
       </c>
       <c r="D9" s="15" cm="1">
         <f t="array" ref="D9">_FV(A9,"Change (%)",TRUE)</f>
-        <v>4.0293000000000002E-2</v>
+        <v>2.4648E-2</v>
       </c>
     </row>
   </sheetData>

--- a/front-end/src/data/dummyData.xlsx
+++ b/front-end/src/data/dummyData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wina/광운대학교/졸업작품/개인코드/test/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wina/광운대학교/졸업작품/개인코드/test_csa/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FDF9B2-B949-5B4D-BE32-A6D11BA322F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A57A5-7BA8-B643-93EC-7A9E5C5AD4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41780" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>고가</t>
   </si>
@@ -283,6 +284,143 @@
   <si>
     <t>변동 %</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일비</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>등락률</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 200선물인버스2X</t>
+  </si>
+  <si>
+    <t> 75</t>
+  </si>
+  <si>
+    <t>삼부토건</t>
+  </si>
+  <si>
+    <t> 315</t>
+  </si>
+  <si>
+    <t>KODEX 코스닥150선물인버스</t>
+  </si>
+  <si>
+    <t> 45</t>
+  </si>
+  <si>
+    <t>LS네트웍스</t>
+  </si>
+  <si>
+    <t> 1,300</t>
+  </si>
+  <si>
+    <t>삼성 인버스 2X WTI원유 선물 ETN</t>
+  </si>
+  <si>
+    <t> 2</t>
+  </si>
+  <si>
+    <t>삼성중공업</t>
+  </si>
+  <si>
+    <t> 160</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t> 2,000</t>
+  </si>
+  <si>
+    <t>KODEX 레버리지</t>
+  </si>
+  <si>
+    <t> 720</t>
+  </si>
+  <si>
+    <t>신한 인버스 2X WTI원유 선물 ETN(H)</t>
+  </si>
+  <si>
+    <t> 3</t>
+  </si>
+  <si>
+    <t>KODEX 코스닥150레버리지</t>
+  </si>
+  <si>
+    <t> 335</t>
+  </si>
+  <si>
+    <t>이구산업</t>
+  </si>
+  <si>
+    <t> 325</t>
+  </si>
+  <si>
+    <t>KODEX 인버스</t>
+  </si>
+  <si>
+    <t> 85</t>
+  </si>
+  <si>
+    <t>윌비스</t>
+  </si>
+  <si>
+    <t>에이프로젠</t>
+  </si>
+  <si>
+    <t> 42</t>
+  </si>
+  <si>
+    <t>화천기계</t>
+  </si>
+  <si>
+    <t> 570</t>
+  </si>
+  <si>
+    <t>신성이엔지</t>
+  </si>
+  <si>
+    <t> 40</t>
+  </si>
+  <si>
+    <t>두산에너빌리티</t>
+  </si>
+  <si>
+    <t> 250</t>
+  </si>
+  <si>
+    <t>웰바이오텍</t>
+  </si>
+  <si>
+    <t> 66</t>
+  </si>
+  <si>
+    <t>아센디오</t>
+  </si>
+  <si>
+    <t> 41</t>
+  </si>
+  <si>
+    <t>대창</t>
+  </si>
+  <si>
+    <t> 69</t>
   </si>
 </sst>
 </file>
@@ -293,7 +431,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -342,8 +480,51 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="Pretendard Regular"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="Pretendard Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Pretendard Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF464646"/>
+      <name val="Pretendard Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF1C18"/>
+      <name val="Pretendard Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD90400"/>
+      <name val="Pretendard Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF005DDE"/>
+      <name val="Pretendard Regular"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,8 +549,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC794D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -557,13 +750,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -674,6 +1047,69 @@
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,11 +1325,9 @@
     <v>Powered by Refinitiv</v>
     <v>299.29000000000002</v>
     <v>152.37</v>
-    <v>2.42</v>
-    <v>4.01</v>
-    <v>2.1154000000000003E-2</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-3.6159999999999995E-4</v>
+    <v>2.4106000000000001</v>
+    <v>5.04</v>
+    <v>2.9195000000000002E-2</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. This segment also includes sales of used vehicles, non-warranty after-sales vehicle services, body shop and parts, paid supercharging, vehicle insurance and retail merchandise. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. The energy generation and storage segment includes the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
     <v>140473</v>
@@ -901,25 +1335,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>194.12</v>
+    <v>184.25</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45331.877858286716</v>
+    <v>45377.999998332809</v>
     <v>0</v>
-    <v>189.48</v>
-    <v>616479900000</v>
+    <v>177.38</v>
+    <v>544057800000</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>190.18</v>
-    <v>44.084099999999999</v>
-    <v>189.56</v>
-    <v>193.57</v>
-    <v>193.5</v>
+    <v>178.58</v>
+    <v>41.319000000000003</v>
+    <v>172.63</v>
+    <v>177.67</v>
     <v>3184791000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>84476347</v>
-    <v>110898902</v>
+    <v>694554</v>
+    <v>96520408</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -942,38 +1375,35 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>199.62</v>
-    <v>143.9</v>
-    <v>1.3077000000000001</v>
-    <v>0.77</v>
-    <v>4.0939999999999995E-3</v>
-    <v>-0.32</v>
-    <v>-1.694E-3</v>
+    <v>155.97999999999999</v>
+    <v>1.2809999999999999</v>
+    <v>-1.1399999999999999</v>
+    <v>-6.6730000000000001E-3</v>
     <v>USD</v>
-    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company's product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. The Company's products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, iPad Pro, iPad Air, iPad, iPad mini, Apple Watch Series 9, AirPods, AirPods Pro, AirPods Max and HomePod.</v>
+    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. Its products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, and others. It also provides DarwinAI, which specializes in visual quality inspection using its Explainable AI platform.</v>
     <v>161000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>189.99</v>
+    <v>171.42</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45331.947312997654</v>
+    <v>45377.99998130781</v>
     <v>3</v>
-    <v>188</v>
-    <v>2916199000000</v>
+    <v>169.58</v>
+    <v>2660327000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>188.65</v>
-    <v>29.264299999999999</v>
-    <v>188.08</v>
-    <v>188.85</v>
-    <v>188.53</v>
+    <v>170</v>
+    <v>26.405999999999999</v>
+    <v>170.85</v>
+    <v>169.71</v>
     <v>15441880000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>45155216</v>
-    <v>56863407</v>
+    <v>227141</v>
+    <v>68929891</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -1015,13 +1445,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>420.82</v>
-    <v>245.61</v>
-    <v>0.89710000000000001</v>
-    <v>6.44</v>
-    <v>1.5550999999999999E-2</v>
-    <v>0.54</v>
-    <v>1.2839999999999998E-3</v>
+    <v>430.82</v>
+    <v>272.04509999999999</v>
+    <v>0.88900000000000001</v>
+    <v>-1.21</v>
+    <v>-2.8610000000000003E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -1029,26 +1457,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>420.82</v>
+    <v>425.99</v>
     <v>9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45331.947313055469</v>
+    <v>45377.999994385937</v>
     <v>10</v>
-    <v>415.09</v>
-    <v>3124870000000</v>
+    <v>421.35</v>
+    <v>3185725000000</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>415.25</v>
-    <v>37.452100000000002</v>
-    <v>414.11</v>
-    <v>420.55</v>
-    <v>421.09</v>
+    <v>425.61</v>
+    <v>38.134</v>
+    <v>422.86</v>
+    <v>421.65</v>
     <v>7430436000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>22032844</v>
-    <v>25054561</v>
+    <v>68932</v>
+    <v>21341914</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1071,12 +1498,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>155.19999999999999</v>
-    <v>88.86</v>
-    <v>1.0648</v>
-    <v>3</v>
-    <v>2.0377999999999997E-2</v>
-    <v>-0.12</v>
-    <v>-7.9880000000000012E-4</v>
+    <v>100.28</v>
+    <v>1.0468999999999999</v>
+    <v>0.55000000000000004</v>
+    <v>3.6389999999999999E-3</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
     <v>182502</v>
@@ -1084,25 +1509,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>150.69499999999999</v>
+    <v>153.19999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45331.89157686328</v>
+    <v>45377.99987903906</v>
     <v>13</v>
-    <v>147.43</v>
-    <v>1859436000000</v>
+    <v>151.03</v>
+    <v>1880194000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>147.94999999999999</v>
-    <v>25.372199999999999</v>
-    <v>147.22</v>
-    <v>150.22</v>
-    <v>150.1</v>
+    <v>151.24</v>
+    <v>26.144300000000001</v>
+    <v>151.15</v>
+    <v>151.69999999999999</v>
     <v>12433000000</v>
     <v>GOOG</v>
     <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>21877693</v>
-    <v>21914306</v>
+    <v>137165</v>
+    <v>25789013</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -1118,19 +1542,17 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>en</v>
     <v>a1slm7</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>485.96</v>
-    <v>167.66</v>
-    <v>1.1862999999999999</v>
-    <v>-1.89</v>
-    <v>-4.0210000000000003E-3</v>
-    <v>-0.01</v>
-    <v>-2.1359999999999999E-5</v>
+    <v>523.57000000000005</v>
+    <v>197.9</v>
+    <v>1.2070000000000001</v>
+    <v>-7.13</v>
+    <v>-1.4173999999999999E-2</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technology that helps people connect and share, find communities, and grow businesses. The Company’s products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) and mixed reality (MR) headsets, and wearables. It operates through two segments: Family of Apps (FoA) and Reality Labs (RL). The FoA segment includes Facebook, Instagram, Messenger, Threads and WhatsApp. The RL includes augmented, mixed and virtual reality related consumer hardware, software, and content. Instagram is a place where people and creators can connect and express themselves through photos, video, and private messaging, and discover and shop from their favorite businesses. Threads is an application for text-based updates and public conversations. Its RL product offerings in VR include Meta Quest devices, and software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
     <v>67317</v>
@@ -1138,25 +1560,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>473.59</v>
+    <v>510</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45331.954472997655</v>
+    <v>45377.999923298441</v>
     <v>16</v>
-    <v>467.46499999999997</v>
-    <v>1193402000000</v>
+    <v>495.21370000000002</v>
+    <v>1299126000000</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>472.95</v>
-    <v>31.617000000000001</v>
-    <v>470</v>
-    <v>468.11</v>
-    <v>468.1</v>
+    <v>505.13</v>
+    <v>33.358600000000003</v>
+    <v>503.02</v>
+    <v>495.89</v>
     <v>2549405000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>18413137</v>
-    <v>21251076</v>
+    <v>50986</v>
+    <v>14686036</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1172,19 +1593,17 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>en</v>
     <v>a1ygoc</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>579.64</v>
-    <v>285.33010000000002</v>
-    <v>1.2094</v>
-    <v>2.79</v>
-    <v>4.9950000000000003E-3</v>
-    <v>5.0000000000000001E-3</v>
-    <v>8.9080000000000001E-6</v>
+    <v>634.38990000000001</v>
+    <v>315.62</v>
+    <v>1.2205999999999999</v>
+    <v>1.78</v>
+    <v>2.8370000000000001E-3</v>
     <v>USD</v>
     <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
     <v>13000</v>
@@ -1192,25 +1611,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>566</v>
+    <v>634.38990000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45331.97259493047</v>
+    <v>45377.999554664064</v>
     <v>19</v>
-    <v>558.1</v>
-    <v>242916600000</v>
+    <v>619.18359999999996</v>
+    <v>271777300000</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>565</v>
-    <v>46.471899999999998</v>
-    <v>558.53</v>
-    <v>561.32000000000005</v>
-    <v>561.32500000000005</v>
+    <v>625.20000000000005</v>
+    <v>52.3553</v>
+    <v>627.46</v>
+    <v>629.24</v>
     <v>432759600</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>3055698</v>
-    <v>6366710</v>
+    <v>12395</v>
+    <v>3022831</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -1226,7 +1644,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>en</v>
     <v>a1yjxm</v>
     <v>268435456</v>
@@ -1234,11 +1652,9 @@
     <v>Powered by Refinitiv</v>
     <v>128.68</v>
     <v>88.66</v>
-    <v>1.1064000000000001</v>
-    <v>0.73</v>
-    <v>7.0350000000000005E-3</v>
-    <v>-0.01</v>
-    <v>-9.569E-5</v>
+    <v>1.0945</v>
+    <v>-1.17</v>
+    <v>-1.248E-2</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>83700</v>
@@ -1246,25 +1662,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>104.94</v>
+    <v>93.86</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45331.905346492968</v>
+    <v>45377.999682221875</v>
     <v>22</v>
-    <v>103.33</v>
-    <v>158330300000</v>
+    <v>92.41</v>
+    <v>140269994760</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>103.8</v>
-    <v>30.297899999999998</v>
-    <v>103.77</v>
-    <v>104.5</v>
-    <v>104.49</v>
+    <v>93.74</v>
+    <v>27.226800000000001</v>
+    <v>93.75</v>
+    <v>92.58</v>
     <v>1515122000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>5449022</v>
-    <v>8896143</v>
+    <v>28472</v>
+    <v>10118137</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -1275,12 +1690,12 @@
     <v>Learn more on Bing</v>
   </rv>
   <rv s="6">
-    <v>11</v>
+    <v>10</v>
     <v>KakaoBank Corp. (XKRX:323410)</v>
     <v>2</v>
+    <v>11</v>
+    <v>Finance</v>
     <v>12</v>
-    <v>Finance</v>
-    <v>13</v>
     <v>en</v>
     <v>c2wb77</v>
     <v>268435456</v>
@@ -1288,8 +1703,8 @@
     <v>Powered by Refinitiv</v>
     <v>31500</v>
     <v>17970</v>
-    <v>700</v>
-    <v>2.4648E-2</v>
+    <v>-650</v>
+    <v>-2.2530000000000001E-2</v>
     <v>KRW</v>
     <v>KakaoBank Corp is a Korea-based company principally engaged in the Internet banking business. The Company operates its business into two segments. The Banking Business Segment is engaged in the provision of deposit, loan, foreign currency remittance and payment settlement services. The Platform Business is engaged in the provision of stock accounts opening, loans from affiliates recommending and affiliated credit cards services.</v>
     <v>1506</v>
@@ -1297,24 +1712,24 @@
     <v>XKRX</v>
     <v>XKRX</v>
     <v>5F, S Dong, H Square, 231, Pangyoyeok-ro, Bundang-gu, SEONGNAM, GYEONGGI-DO, 13494 KR</v>
-    <v>29750</v>
+    <v>28950</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45330.378472222219</v>
+    <v>45378.378472222219</v>
     <v>25</v>
-    <v>28250</v>
-    <v>13876980000000</v>
+    <v>28050</v>
+    <v>13258410000000</v>
     <v>KakaoBank Corp.</v>
     <v>KakaoBank Corp.</v>
-    <v>28400</v>
-    <v>51.36</v>
-    <v>28400</v>
-    <v>29100</v>
-    <v>476872100</v>
+    <v>28450</v>
+    <v>52.17</v>
+    <v>28850</v>
+    <v>28200</v>
+    <v>476921100</v>
     <v>323410</v>
     <v>KakaoBank Corp. (XKRX:323410)</v>
-    <v>2467820</v>
-    <v>1880980</v>
+    <v>659884</v>
+    <v>743610</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -1346,8 +1761,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1368,7 +1781,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1408,8 +1820,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1431,7 +1841,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1488,7 +1897,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1499,16 +1908,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1535,7 +1941,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1546,16 +1952,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1627,7 +2030,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="14">
+  <spbData count="13">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -1665,19 +2068,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -1717,22 +2114,9 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="8">
       <v>Powered by Refinitiv</v>
-    </spb>
-    <spb s="4">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
-      <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -1760,7 +2144,7 @@
       <v>9</v>
       <v>4</v>
     </spb>
-    <spb s="10">
+    <spb s="4">
       <v>Delayed 20 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
@@ -1772,7 +2156,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -1810,9 +2194,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1820,9 +2201,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -1857,9 +2235,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -1884,13 +2259,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Change (%)" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3003,7 +3371,7 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="131" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="131" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3667,11 +4035,11 @@
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" ref="C2">_FV(A2,"Price")</f>
-        <v>193.57</v>
+        <v>177.67</v>
       </c>
       <c r="D2" s="9" cm="1">
         <f t="array" ref="D2">_FV(A2,"Change (%)",TRUE)</f>
-        <v>2.1154000000000003E-2</v>
+        <v>2.9195000000000002E-2</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -3684,11 +4052,11 @@
       </c>
       <c r="C3" s="5" cm="1">
         <f t="array" ref="C3">_FV(A3,"Price")</f>
-        <v>188.85</v>
+        <v>169.71</v>
       </c>
       <c r="D3" s="11" cm="1">
         <f t="array" ref="D3">_FV(A3,"Change (%)",TRUE)</f>
-        <v>4.0939999999999995E-3</v>
+        <v>-6.6730000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -3700,11 +4068,11 @@
       </c>
       <c r="C4" s="5" cm="1">
         <f t="array" ref="C4">_FV(A4,"Price")</f>
-        <v>420.55</v>
+        <v>421.65</v>
       </c>
       <c r="D4" s="11" cm="1">
         <f t="array" ref="D4">_FV(A4,"Change (%)",TRUE)</f>
-        <v>1.5550999999999999E-2</v>
+        <v>-2.8610000000000003E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -3716,11 +4084,11 @@
       </c>
       <c r="C5" s="5" cm="1">
         <f t="array" ref="C5">_FV(A5,"Price")</f>
-        <v>150.22</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="D5" s="11" cm="1">
         <f t="array" ref="D5">_FV(A5,"Change (%)",TRUE)</f>
-        <v>2.0377999999999997E-2</v>
+        <v>3.6389999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
@@ -3732,11 +4100,11 @@
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_FV(A6,"Price")</f>
-        <v>468.11</v>
+        <v>495.89</v>
       </c>
       <c r="D6" s="11" cm="1">
         <f t="array" ref="D6">_FV(A6,"Change (%)",TRUE)</f>
-        <v>-4.0210000000000003E-3</v>
+        <v>-1.4173999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -3748,11 +4116,11 @@
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" ref="C7">_FV(A7,"Price")</f>
-        <v>561.32000000000005</v>
+        <v>629.24</v>
       </c>
       <c r="D7" s="11" cm="1">
         <f t="array" ref="D7">_FV(A7,"Change (%)",TRUE)</f>
-        <v>4.9950000000000003E-3</v>
+        <v>2.8370000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -3764,11 +4132,11 @@
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" ref="C8">_FV(A8,"Price")</f>
-        <v>104.5</v>
+        <v>92.58</v>
       </c>
       <c r="D8" s="11" cm="1">
         <f t="array" ref="D8">_FV(A8,"Change (%)",TRUE)</f>
-        <v>7.0350000000000005E-3</v>
+        <v>-1.248E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="46" thickBot="1">
@@ -3780,11 +4148,391 @@
       </c>
       <c r="C9" s="14" cm="1">
         <f t="array" ref="C9">_FV(A9,"Price")</f>
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="D9" s="15" cm="1">
         <f t="array" ref="D9">_FV(A9,"Change (%)",TRUE)</f>
-        <v>2.4648E-2</v>
+        <v>-2.2530000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFDD746-81AC-2648-8E46-DD7EE82FD9FB}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="42">
+        <v>2180</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="44">
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="47">
+        <v>2690</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="49">
+        <v>0.1326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="47">
+        <v>3380</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="49">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="47">
+        <v>5640</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="49">
+        <v>0.29949999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="50">
+        <v>92</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="52">
+        <v>-2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="47">
+        <v>8850</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="52">
+        <v>-1.78E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="47">
+        <v>72300</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="52">
+        <v>-2.69E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="47">
+        <v>18545</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="52">
+        <v>-3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="45">
+        <v>9</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="50">
+        <v>81</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="52">
+        <v>-3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="47">
+        <v>12290</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="52">
+        <v>-2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="47">
+        <v>4545</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="49">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="47">
+        <v>4275</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="49">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="50">
+        <v>530</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="49">
+        <v>9.2799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="47">
+        <v>1072</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="49">
+        <v>4.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="47">
+        <v>6260</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="49">
+        <v>0.1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="47">
+        <v>2290</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="52">
+        <v>-1.72E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="47">
+        <v>17980</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="52">
+        <v>-1.37E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="50">
+        <v>964</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="49">
+        <v>7.3499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="47">
+        <v>1066</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="52">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" thickBot="1">
+      <c r="A21" s="53">
+        <v>20</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="55">
+        <v>1469</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="57">
+        <v>4.9299999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/front-end/src/data/dummyData.xlsx
+++ b/front-end/src/data/dummyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wina/광운대학교/졸업작품/개인코드/test_csa/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/win-air/Library/Mobile Documents/com~apple~CloudDocs/광운대학교/졸업작품/Frontend/front-end/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A57A5-7BA8-B643-93EC-7A9E5C5AD4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005EEC94-D478-1845-ACAB-52B607C03B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -1324,10 +1324,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>299.29000000000002</v>
-    <v>152.37</v>
-    <v>2.4106000000000001</v>
-    <v>5.04</v>
-    <v>2.9195000000000002E-2</v>
+    <v>138.80250000000001</v>
+    <v>2.3254000000000001</v>
+    <v>3.42</v>
+    <v>2.0299999999999999E-2</v>
+    <v>0.875</v>
+    <v>5.0899999999999999E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. This segment also includes sales of used vehicles, non-warranty after-sales vehicle services, body shop and parts, paid supercharging, vehicle insurance and retail merchandise. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. The energy generation and storage segment includes the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
     <v>140473</v>
@@ -1335,24 +1337,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>184.25</v>
+    <v>175.4</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45377.999998332809</v>
+    <v>45425.999983483591</v>
     <v>0</v>
-    <v>177.38</v>
-    <v>544057800000</v>
+    <v>169</v>
+    <v>548190900439</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>178.58</v>
-    <v>41.319000000000003</v>
-    <v>172.63</v>
-    <v>177.67</v>
-    <v>3184791000</v>
+    <v>170</v>
+    <v>44.043700000000001</v>
+    <v>168.47</v>
+    <v>171.89</v>
+    <v>172.76499999999999</v>
+    <v>3189196000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>694554</v>
-    <v>96520408</v>
+    <v>67018903</v>
+    <v>102788125</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -1375,10 +1378,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>199.62</v>
-    <v>155.97999999999999</v>
-    <v>1.2809999999999999</v>
-    <v>-1.1399999999999999</v>
-    <v>-6.6730000000000001E-3</v>
+    <v>164.07499999999999</v>
+    <v>1.2402</v>
+    <v>3.23</v>
+    <v>1.7645000000000001E-2</v>
+    <v>-0.14000000000000001</v>
+    <v>-7.5160000000000005E-4</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. Its products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, and others. It also provides DarwinAI, which specializes in visual quality inspection using its Explainable AI platform.</v>
     <v>161000</v>
@@ -1386,24 +1391,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>171.42</v>
+    <v>187.1</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45377.99998130781</v>
+    <v>45425.999881249998</v>
     <v>3</v>
-    <v>169.58</v>
-    <v>2660327000000</v>
+    <v>184.62</v>
+    <v>2856432422400</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>170</v>
-    <v>26.405999999999999</v>
-    <v>170.85</v>
-    <v>169.71</v>
-    <v>15441880000</v>
+    <v>185.435</v>
+    <v>28.966799999999999</v>
+    <v>183.05</v>
+    <v>186.28</v>
+    <v>186.14</v>
+    <v>15334080000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>227141</v>
-    <v>68929891</v>
+    <v>72044809</v>
+    <v>64625912</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -1446,10 +1452,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>430.82</v>
-    <v>272.04509999999999</v>
-    <v>0.88900000000000001</v>
-    <v>-1.21</v>
-    <v>-2.8610000000000003E-3</v>
+    <v>307.58999999999997</v>
+    <v>0.8931</v>
+    <v>-1.02</v>
+    <v>-2.4590000000000002E-3</v>
+    <v>0.52</v>
+    <v>1.2570000000000001E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -1457,25 +1465,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>425.99</v>
+    <v>418.34800000000001</v>
     <v>9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45377.999994385937</v>
+    <v>45425.999967580472</v>
     <v>10</v>
-    <v>421.35</v>
-    <v>3185725000000</v>
+    <v>410.82</v>
+    <v>3074893638320</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>425.61</v>
-    <v>38.134</v>
-    <v>422.86</v>
-    <v>421.65</v>
-    <v>7430436000</v>
+    <v>418.01</v>
+    <v>35.845999999999997</v>
+    <v>414.74</v>
+    <v>413.72</v>
+    <v>414.24</v>
+    <v>7432306000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>68932</v>
-    <v>21341914</v>
+    <v>15440226</v>
+    <v>19602432</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1497,36 +1506,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>155.19999999999999</v>
-    <v>100.28</v>
-    <v>1.0468999999999999</v>
-    <v>0.55000000000000004</v>
-    <v>3.6389999999999999E-3</v>
+    <v>176.42</v>
+    <v>115.83</v>
+    <v>1.0077</v>
+    <v>0.61</v>
+    <v>3.5820000000000001E-3</v>
+    <v>-0.15</v>
+    <v>-8.7770000000000003E-4</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
-    <v>182502</v>
+    <v>180895</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>153.19999999999999</v>
+    <v>170.95</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45377.99987903906</v>
+    <v>45425.99989180547</v>
     <v>13</v>
-    <v>151.03</v>
-    <v>1880194000000</v>
+    <v>165.76</v>
+    <v>2093389000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>151.24</v>
-    <v>26.144300000000001</v>
-    <v>151.15</v>
-    <v>151.69999999999999</v>
-    <v>12433000000</v>
+    <v>165.84700000000001</v>
+    <v>26.202000000000002</v>
+    <v>170.29</v>
+    <v>170.9</v>
+    <v>170.75</v>
+    <v>12358000000</v>
     <v>GOOG</v>
     <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>137165</v>
-    <v>25789013</v>
+    <v>19648585</v>
+    <v>21401872</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -1548,36 +1560,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>523.57000000000005</v>
-    <v>197.9</v>
-    <v>1.2070000000000001</v>
-    <v>-7.13</v>
-    <v>-1.4173999999999999E-2</v>
+    <v>531.48990000000003</v>
+    <v>235.33</v>
+    <v>1.2103999999999999</v>
+    <v>-8.19</v>
+    <v>-1.7198999999999999E-2</v>
+    <v>-1.71</v>
+    <v>-3.6540000000000001E-3</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technology that helps people connect and share, find communities, and grow businesses. The Company’s products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) and mixed reality (MR) headsets, and wearables. It operates through two segments: Family of Apps (FoA) and Reality Labs (RL). The FoA segment includes Facebook, Instagram, Messenger, Threads and WhatsApp. The RL includes augmented, mixed and virtual reality related consumer hardware, software, and content. Instagram is a place where people and creators can connect and express themselves through photos, video, and private messaging, and discover and shop from their favorite businesses. Threads is an application for text-based updates and public conversations. Its RL product offerings in VR include Meta Quest devices, and software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
-    <v>67317</v>
+    <v>69329</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>510</v>
+    <v>473.35</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45377.999923298441</v>
+    <v>45425.999981180466</v>
     <v>16</v>
-    <v>495.21370000000002</v>
-    <v>1299126000000</v>
+    <v>462.85</v>
+    <v>1207898000000</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>505.13</v>
-    <v>33.358600000000003</v>
-    <v>503.02</v>
-    <v>495.89</v>
-    <v>2549405000</v>
+    <v>472.75</v>
+    <v>26.932099999999998</v>
+    <v>476.2</v>
+    <v>468.01</v>
+    <v>466.3</v>
+    <v>2536534000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>50986</v>
-    <v>14686036</v>
+    <v>14668798</v>
+    <v>18862351</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1599,11 +1614,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>634.38990000000001</v>
-    <v>315.62</v>
-    <v>1.2205999999999999</v>
-    <v>1.78</v>
-    <v>2.8370000000000001E-3</v>
+    <v>639</v>
+    <v>329.61500000000001</v>
+    <v>1.244</v>
+    <v>5.72</v>
+    <v>9.3640000000000008E-3</v>
+    <v>-0.315</v>
+    <v>-5.109E-4</v>
     <v>USD</v>
     <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
     <v>13000</v>
@@ -1611,24 +1628,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>634.38990000000001</v>
+    <v>618.21900000000005</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45377.999554664064</v>
+    <v>45425.999930613281</v>
     <v>19</v>
-    <v>619.18359999999996</v>
-    <v>271777300000</v>
+    <v>606.83000000000004</v>
+    <v>265689370908</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>625.20000000000005</v>
-    <v>52.3553</v>
-    <v>627.46</v>
-    <v>629.24</v>
-    <v>432759600</v>
+    <v>614.29999999999995</v>
+    <v>42.775700000000001</v>
+    <v>610.87</v>
+    <v>616.59</v>
+    <v>616.27499999999998</v>
+    <v>430901200</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>12395</v>
-    <v>3022831</v>
+    <v>2086197</v>
+    <v>4218249</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -1650,11 +1668,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>128.68</v>
+    <v>123.3916</v>
     <v>88.66</v>
-    <v>1.0945</v>
-    <v>-1.17</v>
-    <v>-1.248E-2</v>
+    <v>1.0468</v>
+    <v>1.78</v>
+    <v>1.9573E-2</v>
+    <v>-0.22</v>
+    <v>-2.3730000000000001E-3</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>83700</v>
@@ -1662,24 +1682,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>93.86</v>
+    <v>92.77</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45377.999682221875</v>
+    <v>45425.996221689064</v>
     <v>22</v>
-    <v>92.41</v>
-    <v>140269994760</v>
+    <v>91.15</v>
+    <v>139947766480</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>93.74</v>
-    <v>27.226800000000001</v>
-    <v>93.75</v>
-    <v>92.58</v>
-    <v>1515122000</v>
+    <v>91.27</v>
+    <v>27.2682</v>
+    <v>90.94</v>
+    <v>92.72</v>
+    <v>92.5</v>
+    <v>1509359000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>28472</v>
-    <v>10118137</v>
+    <v>8792060</v>
+    <v>8279299</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -1703,33 +1724,33 @@
     <v>Powered by Refinitiv</v>
     <v>31500</v>
     <v>17970</v>
-    <v>-650</v>
-    <v>-2.2530000000000001E-2</v>
+    <v>-100</v>
+    <v>-4.1929999999999997E-3</v>
     <v>KRW</v>
     <v>KakaoBank Corp is a Korea-based company principally engaged in the Internet banking business. The Company operates its business into two segments. The Banking Business Segment is engaged in the provision of deposit, loan, foreign currency remittance and payment settlement services. The Platform Business is engaged in the provision of stock accounts opening, loans from affiliates recommending and affiliated credit cards services.</v>
-    <v>1506</v>
+    <v>1552</v>
     <v>Korea Stock Exchange</v>
     <v>XKRX</v>
     <v>XKRX</v>
     <v>5F, S Dong, H Square, 231, Pangyoyeok-ro, Bundang-gu, SEONGNAM, GYEONGGI-DO, 13494 KR</v>
-    <v>28950</v>
+    <v>24000</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45378.378472222219</v>
+    <v>45426.173368055555</v>
     <v>25</v>
-    <v>28050</v>
-    <v>13258410000000</v>
+    <v>23700</v>
+    <v>11469950000000</v>
     <v>KakaoBank Corp.</v>
     <v>KakaoBank Corp.</v>
-    <v>28450</v>
-    <v>52.17</v>
-    <v>28850</v>
-    <v>28200</v>
+    <v>23850</v>
+    <v>32.01</v>
+    <v>23850</v>
+    <v>23750</v>
     <v>476921100</v>
     <v>323410</v>
     <v>KakaoBank Corp. (XKRX:323410)</v>
-    <v>659884</v>
-    <v>743610</v>
+    <v>425937</v>
+    <v>956860</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -1761,6 +1782,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1781,6 +1804,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1820,6 +1844,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1841,6 +1867,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1897,7 +1924,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1908,13 +1935,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1941,7 +1971,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="43">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1952,13 +1982,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2068,13 +2101,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -2114,6 +2153,9 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="8">
       <v>Powered by Refinitiv</v>
@@ -2144,7 +2186,7 @@
       <v>9</v>
       <v>4</v>
     </spb>
-    <spb s="4">
+    <spb s="10">
       <v>Delayed 20 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
@@ -2156,7 +2198,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2194,6 +2236,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2201,6 +2246,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -2235,6 +2283,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2260,6 +2311,13 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
   </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
 </spbStructures>
 </file>
 
@@ -2270,7 +2328,7 @@
       <x:numFmt numFmtId="0" formatCode="General"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="27" formatCode="yyyy/m/d\ hh:mm"/>
+      <x:numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="14" formatCode="0.00%"/>
@@ -2315,10 +2373,10 @@
       <rpv i="2">1</rpv>
     </rSty>
     <rSty dxfid="0">
-      <rpv i="0">_([$₩-ko-KR]* #,##0.00_);_([$₩-ko-KR]* (#,##0.00);_([$₩-ko-KR]* "-"??_);_(@_)</rpv>
+      <rpv i="0">_([$₩-ko-Kore-KR]* #,##0.00_);_([$₩-ko-Kore-KR]* (#,##0.00);_([$₩-ko-Kore-KR]* "-"??_);_(@_)</rpv>
     </rSty>
     <rSty dxfid="0">
-      <rpv i="0">_([$₩-ko-KR]* #,##0_);_([$₩-ko-KR]* (#,##0);_([$₩-ko-KR]* "-"_);_(@_)</rpv>
+      <rpv i="0">_([$₩-ko-Kore-KR]* #,##0_);_([$₩-ko-Kore-KR]* (#,##0);_([$₩-ko-Kore-KR]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -4001,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6844512C-3562-4F4E-BFC4-C4699D2CBAC7}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="14"/>
@@ -4035,11 +4093,11 @@
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" ref="C2">_FV(A2,"Price")</f>
-        <v>177.67</v>
+        <v>171.89</v>
       </c>
       <c r="D2" s="9" cm="1">
         <f t="array" ref="D2">_FV(A2,"Change (%)",TRUE)</f>
-        <v>2.9195000000000002E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -4052,11 +4110,11 @@
       </c>
       <c r="C3" s="5" cm="1">
         <f t="array" ref="C3">_FV(A3,"Price")</f>
-        <v>169.71</v>
+        <v>186.28</v>
       </c>
       <c r="D3" s="11" cm="1">
         <f t="array" ref="D3">_FV(A3,"Change (%)",TRUE)</f>
-        <v>-6.6730000000000001E-3</v>
+        <v>1.7645000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -4068,11 +4126,11 @@
       </c>
       <c r="C4" s="5" cm="1">
         <f t="array" ref="C4">_FV(A4,"Price")</f>
-        <v>421.65</v>
+        <v>413.72</v>
       </c>
       <c r="D4" s="11" cm="1">
         <f t="array" ref="D4">_FV(A4,"Change (%)",TRUE)</f>
-        <v>-2.8610000000000003E-3</v>
+        <v>-2.4590000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -4084,11 +4142,11 @@
       </c>
       <c r="C5" s="5" cm="1">
         <f t="array" ref="C5">_FV(A5,"Price")</f>
-        <v>151.69999999999999</v>
+        <v>170.9</v>
       </c>
       <c r="D5" s="11" cm="1">
         <f t="array" ref="D5">_FV(A5,"Change (%)",TRUE)</f>
-        <v>3.6389999999999999E-3</v>
+        <v>3.5820000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
@@ -4100,11 +4158,11 @@
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_FV(A6,"Price")</f>
-        <v>495.89</v>
+        <v>468.01</v>
       </c>
       <c r="D6" s="11" cm="1">
         <f t="array" ref="D6">_FV(A6,"Change (%)",TRUE)</f>
-        <v>-1.4173999999999999E-2</v>
+        <v>-1.7198999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -4116,11 +4174,11 @@
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" ref="C7">_FV(A7,"Price")</f>
-        <v>629.24</v>
+        <v>616.59</v>
       </c>
       <c r="D7" s="11" cm="1">
         <f t="array" ref="D7">_FV(A7,"Change (%)",TRUE)</f>
-        <v>2.8370000000000001E-3</v>
+        <v>9.3640000000000008E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -4132,11 +4190,11 @@
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" ref="C8">_FV(A8,"Price")</f>
-        <v>92.58</v>
+        <v>92.72</v>
       </c>
       <c r="D8" s="11" cm="1">
         <f t="array" ref="D8">_FV(A8,"Change (%)",TRUE)</f>
-        <v>-1.248E-2</v>
+        <v>1.9573E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="46" thickBot="1">
@@ -4148,11 +4206,11 @@
       </c>
       <c r="C9" s="14" cm="1">
         <f t="array" ref="C9">_FV(A9,"Price")</f>
-        <v>28200</v>
+        <v>23750</v>
       </c>
       <c r="D9" s="15" cm="1">
         <f t="array" ref="D9">_FV(A9,"Change (%)",TRUE)</f>
-        <v>-2.2530000000000001E-2</v>
+        <v>-4.1929999999999997E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4165,7 +4223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFDD746-81AC-2648-8E46-DD7EE82FD9FB}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/front-end/src/data/dummyData.xlsx
+++ b/front-end/src/data/dummyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/win-air/Library/Mobile Documents/com~apple~CloudDocs/광운대학교/졸업작품/Frontend/front-end/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005EEC94-D478-1845-ACAB-52B607C03B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AEBD50-40AB-2146-9D20-2430F78C1872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34200" yWindow="5260" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -1325,11 +1325,9 @@
     <v>Powered by Refinitiv</v>
     <v>299.29000000000002</v>
     <v>138.80250000000001</v>
-    <v>2.3254000000000001</v>
-    <v>3.42</v>
-    <v>2.0299999999999999E-2</v>
-    <v>0.875</v>
-    <v>5.0899999999999999E-3</v>
+    <v>2.3264</v>
+    <v>-3.85</v>
+    <v>-2.1684000000000002E-2</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. This segment also includes sales of used vehicles, non-warranty after-sales vehicle services, body shop and parts, paid supercharging, vehicle insurance and retail merchandise. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. The energy generation and storage segment includes the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
     <v>140473</v>
@@ -1337,25 +1335,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>175.4</v>
+    <v>180</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45425.999983483591</v>
+    <v>45427.603747360939</v>
     <v>0</v>
-    <v>169</v>
-    <v>548190900439</v>
+    <v>173.22</v>
+    <v>553963345200</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>170</v>
-    <v>44.043700000000001</v>
-    <v>168.47</v>
-    <v>171.89</v>
-    <v>172.76499999999999</v>
+    <v>179.9</v>
+    <v>45.409199999999998</v>
+    <v>177.55</v>
+    <v>173.7</v>
     <v>3189196000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>67018903</v>
-    <v>102788125</v>
+    <v>31903339</v>
+    <v>100618939</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -1379,11 +1376,9 @@
     <v>Powered by Refinitiv</v>
     <v>199.62</v>
     <v>164.07499999999999</v>
-    <v>1.2402</v>
-    <v>3.23</v>
-    <v>1.7645000000000001E-2</v>
-    <v>-0.14000000000000001</v>
-    <v>-7.5160000000000005E-4</v>
+    <v>1.2443</v>
+    <v>2.16</v>
+    <v>1.1524000000000001E-2</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. Its products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, and others. It also provides DarwinAI, which specializes in visual quality inspection using its Explainable AI platform.</v>
     <v>161000</v>
@@ -1391,25 +1386,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>187.1</v>
+    <v>189.73</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45425.999881249998</v>
+    <v>45427.603735937497</v>
     <v>3</v>
-    <v>184.62</v>
-    <v>2856432422400</v>
+    <v>187.38</v>
+    <v>2907188227200</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>185.435</v>
-    <v>28.966799999999999</v>
-    <v>183.05</v>
-    <v>186.28</v>
-    <v>186.14</v>
+    <v>188</v>
+    <v>29.145900000000001</v>
+    <v>187.43</v>
+    <v>189.59</v>
     <v>15334080000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>72044809</v>
-    <v>64625912</v>
+    <v>15109574</v>
+    <v>66408380</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -1453,11 +1447,9 @@
     <v>Powered by Refinitiv</v>
     <v>430.82</v>
     <v>307.58999999999997</v>
-    <v>0.8931</v>
-    <v>-1.02</v>
-    <v>-2.4590000000000002E-3</v>
-    <v>0.52</v>
-    <v>1.2570000000000001E-3</v>
+    <v>0.89370000000000005</v>
+    <v>3.4950000000000001</v>
+    <v>8.405000000000001E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -1465,26 +1457,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>418.34800000000001</v>
+    <v>420.45</v>
     <v>9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45425.999967580472</v>
+    <v>45427.603745925779</v>
     <v>10</v>
-    <v>410.82</v>
-    <v>3074893638320</v>
+    <v>417.27</v>
+    <v>3096001000000</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>418.01</v>
-    <v>35.845999999999997</v>
-    <v>414.74</v>
-    <v>413.72</v>
-    <v>414.24</v>
+    <v>417.9</v>
+    <v>36.027099999999997</v>
+    <v>415.81</v>
+    <v>419.30500000000001</v>
     <v>7432306000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>15440226</v>
-    <v>19602432</v>
+    <v>3729813</v>
+    <v>19753026</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1508,11 +1499,9 @@
     <v>Powered by Refinitiv</v>
     <v>176.42</v>
     <v>115.83</v>
-    <v>1.0077</v>
-    <v>0.61</v>
-    <v>3.5820000000000001E-3</v>
-    <v>-0.15</v>
-    <v>-8.7770000000000003E-4</v>
+    <v>1.0084</v>
+    <v>1.2</v>
+    <v>6.9799999999999992E-3</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
     <v>180895</v>
@@ -1520,25 +1509,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>170.95</v>
+    <v>174.04589999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45425.99989180547</v>
+    <v>45427.603749733593</v>
     <v>13</v>
-    <v>165.76</v>
-    <v>2093389000000</v>
+    <v>172.03</v>
+    <v>2113993000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>165.84700000000001</v>
-    <v>26.202000000000002</v>
-    <v>170.29</v>
-    <v>170.9</v>
-    <v>170.75</v>
+    <v>172.03</v>
+    <v>26.3598</v>
+    <v>171.93</v>
+    <v>173.13</v>
     <v>12358000000</v>
     <v>GOOG</v>
     <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>19648585</v>
-    <v>21401872</v>
+    <v>4246545</v>
+    <v>21409807</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -1562,11 +1550,9 @@
     <v>Powered by Refinitiv</v>
     <v>531.48990000000003</v>
     <v>235.33</v>
-    <v>1.2103999999999999</v>
-    <v>-8.19</v>
-    <v>-1.7198999999999999E-2</v>
-    <v>-1.71</v>
-    <v>-3.6540000000000001E-3</v>
+    <v>1.2090000000000001</v>
+    <v>2.46</v>
+    <v>5.2139999999999999E-3</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technology that helps people connect and share, find communities, and grow businesses. The Company’s products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) and mixed reality (MR) headsets, and wearables. It operates through two segments: Family of Apps (FoA) and Reality Labs (RL). The FoA segment includes Facebook, Instagram, Messenger, Threads and WhatsApp. The RL includes augmented, mixed and virtual reality related consumer hardware, software, and content. Instagram is a place where people and creators can connect and express themselves through photos, video, and private messaging, and discover and shop from their favorite businesses. Threads is an application for text-based updates and public conversations. Its RL product offerings in VR include Meta Quest devices, and software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
     <v>69329</v>
@@ -1574,25 +1560,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>473.35</v>
+    <v>476.9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45425.999981180466</v>
+    <v>45427.60372716406</v>
     <v>16</v>
-    <v>462.85</v>
-    <v>1207898000000</v>
+    <v>471.2</v>
+    <v>1196864000000</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>472.75</v>
-    <v>26.932099999999998</v>
-    <v>476.2</v>
-    <v>468.01</v>
-    <v>466.3</v>
+    <v>474.75</v>
+    <v>27.152999999999999</v>
+    <v>471.85</v>
+    <v>474.31</v>
     <v>2536534000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>14668798</v>
-    <v>18862351</v>
+    <v>2609080</v>
+    <v>18902565</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1616,11 +1601,9 @@
     <v>Powered by Refinitiv</v>
     <v>639</v>
     <v>329.61500000000001</v>
-    <v>1.244</v>
-    <v>5.72</v>
-    <v>9.3640000000000008E-3</v>
-    <v>-0.315</v>
-    <v>-5.109E-4</v>
+    <v>1.2456</v>
+    <v>8.2651000000000003</v>
+    <v>1.3469E-2</v>
     <v>USD</v>
     <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
     <v>13000</v>
@@ -1628,25 +1611,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>618.21900000000005</v>
+    <v>622.72990000000004</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45425.999930613281</v>
+    <v>45427.603746342189</v>
     <v>19</v>
-    <v>606.83000000000004</v>
-    <v>265689370908</v>
+    <v>612.21280000000002</v>
+    <v>267988271900</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>614.29999999999995</v>
-    <v>42.775700000000001</v>
-    <v>610.87</v>
-    <v>616.59</v>
-    <v>616.27499999999998</v>
+    <v>618.57000000000005</v>
+    <v>42.572400000000002</v>
+    <v>613.66</v>
+    <v>621.92510000000004</v>
     <v>430901200</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>2086197</v>
-    <v>4218249</v>
+    <v>783883</v>
+    <v>4241696</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -1670,11 +1652,9 @@
     <v>Powered by Refinitiv</v>
     <v>123.3916</v>
     <v>88.66</v>
-    <v>1.0468</v>
-    <v>1.78</v>
-    <v>1.9573E-2</v>
-    <v>-0.22</v>
-    <v>-2.3730000000000001E-3</v>
+    <v>1.0482</v>
+    <v>-0.48</v>
+    <v>-5.1729999999999996E-3</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>83700</v>
@@ -1682,25 +1662,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>92.77</v>
+    <v>92.62</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45425.996221689064</v>
+    <v>45427.603746099216</v>
     <v>22</v>
-    <v>91.15</v>
-    <v>139947766480</v>
+    <v>91.77</v>
+    <v>139328929290</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>91.27</v>
-    <v>27.2682</v>
-    <v>90.94</v>
-    <v>92.72</v>
-    <v>92.5</v>
+    <v>92.385000000000005</v>
+    <v>27.288499999999999</v>
+    <v>92.79</v>
+    <v>92.31</v>
     <v>1509359000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>8792060</v>
-    <v>8279299</v>
+    <v>1989559</v>
+    <v>8317536</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -1724,8 +1703,8 @@
     <v>Powered by Refinitiv</v>
     <v>31500</v>
     <v>17970</v>
-    <v>-100</v>
-    <v>-4.1929999999999997E-3</v>
+    <v>-150</v>
+    <v>-6.2890000000000003E-3</v>
     <v>KRW</v>
     <v>KakaoBank Corp is a Korea-based company principally engaged in the Internet banking business. The Company operates its business into two segments. The Banking Business Segment is engaged in the provision of deposit, loan, foreign currency remittance and payment settlement services. The Platform Business is engaged in the provision of stock accounts opening, loans from affiliates recommending and affiliated credit cards services.</v>
     <v>1552</v>
@@ -1736,21 +1715,21 @@
     <v>24000</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45426.173368055555</v>
+    <v>45426.380914351852</v>
     <v>25</v>
     <v>23700</v>
-    <v>11469950000000</v>
+    <v>11374570000000</v>
     <v>KakaoBank Corp.</v>
     <v>KakaoBank Corp.</v>
     <v>23850</v>
-    <v>32.01</v>
+    <v>30.992100000000001</v>
     <v>23850</v>
-    <v>23750</v>
+    <v>23700</v>
     <v>476921100</v>
     <v>323410</v>
     <v>KakaoBank Corp. (XKRX:323410)</v>
-    <v>425937</v>
-    <v>956860</v>
+    <v>672936</v>
+    <v>990000</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -1782,8 +1761,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1804,7 +1781,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1844,8 +1820,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1867,7 +1841,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1924,7 +1897,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1935,16 +1908,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1971,7 +1941,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1982,16 +1952,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2101,19 +2068,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -2153,9 +2114,6 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="8">
       <v>Powered by Refinitiv</v>
@@ -2186,7 +2144,7 @@
       <v>9</v>
       <v>4</v>
     </spb>
-    <spb s="10">
+    <spb s="4">
       <v>Delayed 20 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
@@ -2198,7 +2156,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2236,9 +2194,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2246,9 +2201,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -2283,9 +2235,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2310,13 +2259,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Change (%)" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -4060,7 +4002,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="14"/>
@@ -4093,11 +4035,11 @@
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" ref="C2">_FV(A2,"Price")</f>
-        <v>171.89</v>
+        <v>173.7</v>
       </c>
       <c r="D2" s="9" cm="1">
         <f t="array" ref="D2">_FV(A2,"Change (%)",TRUE)</f>
-        <v>2.0299999999999999E-2</v>
+        <v>-2.1684000000000002E-2</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -4110,11 +4052,11 @@
       </c>
       <c r="C3" s="5" cm="1">
         <f t="array" ref="C3">_FV(A3,"Price")</f>
-        <v>186.28</v>
+        <v>189.59</v>
       </c>
       <c r="D3" s="11" cm="1">
         <f t="array" ref="D3">_FV(A3,"Change (%)",TRUE)</f>
-        <v>1.7645000000000001E-2</v>
+        <v>1.1524000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -4126,11 +4068,11 @@
       </c>
       <c r="C4" s="5" cm="1">
         <f t="array" ref="C4">_FV(A4,"Price")</f>
-        <v>413.72</v>
+        <v>419.30500000000001</v>
       </c>
       <c r="D4" s="11" cm="1">
         <f t="array" ref="D4">_FV(A4,"Change (%)",TRUE)</f>
-        <v>-2.4590000000000002E-3</v>
+        <v>8.405000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -4142,11 +4084,11 @@
       </c>
       <c r="C5" s="5" cm="1">
         <f t="array" ref="C5">_FV(A5,"Price")</f>
-        <v>170.9</v>
+        <v>173.13</v>
       </c>
       <c r="D5" s="11" cm="1">
         <f t="array" ref="D5">_FV(A5,"Change (%)",TRUE)</f>
-        <v>3.5820000000000001E-3</v>
+        <v>6.9799999999999992E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
@@ -4158,11 +4100,11 @@
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_FV(A6,"Price")</f>
-        <v>468.01</v>
+        <v>474.31</v>
       </c>
       <c r="D6" s="11" cm="1">
         <f t="array" ref="D6">_FV(A6,"Change (%)",TRUE)</f>
-        <v>-1.7198999999999999E-2</v>
+        <v>5.2139999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -4174,11 +4116,11 @@
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" ref="C7">_FV(A7,"Price")</f>
-        <v>616.59</v>
+        <v>621.92510000000004</v>
       </c>
       <c r="D7" s="11" cm="1">
         <f t="array" ref="D7">_FV(A7,"Change (%)",TRUE)</f>
-        <v>9.3640000000000008E-3</v>
+        <v>1.3469E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -4190,11 +4132,11 @@
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" ref="C8">_FV(A8,"Price")</f>
-        <v>92.72</v>
+        <v>92.31</v>
       </c>
       <c r="D8" s="11" cm="1">
         <f t="array" ref="D8">_FV(A8,"Change (%)",TRUE)</f>
-        <v>1.9573E-2</v>
+        <v>-5.1729999999999996E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="46" thickBot="1">
@@ -4206,11 +4148,11 @@
       </c>
       <c r="C9" s="14" cm="1">
         <f t="array" ref="C9">_FV(A9,"Price")</f>
-        <v>23750</v>
+        <v>23700</v>
       </c>
       <c r="D9" s="15" cm="1">
         <f t="array" ref="D9">_FV(A9,"Change (%)",TRUE)</f>
-        <v>-4.1929999999999997E-3</v>
+        <v>-6.2890000000000003E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4224,7 +4166,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/front-end/src/data/dummyData.xlsx
+++ b/front-end/src/data/dummyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/win-air/Library/Mobile Documents/com~apple~CloudDocs/광운대학교/졸업작품/Frontend/front-end/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AEBD50-40AB-2146-9D20-2430F78C1872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005EEC94-D478-1845-ACAB-52B607C03B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="5260" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -1325,9 +1325,11 @@
     <v>Powered by Refinitiv</v>
     <v>299.29000000000002</v>
     <v>138.80250000000001</v>
-    <v>2.3264</v>
-    <v>-3.85</v>
-    <v>-2.1684000000000002E-2</v>
+    <v>2.3254000000000001</v>
+    <v>3.42</v>
+    <v>2.0299999999999999E-2</v>
+    <v>0.875</v>
+    <v>5.0899999999999999E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. This segment also includes sales of used vehicles, non-warranty after-sales vehicle services, body shop and parts, paid supercharging, vehicle insurance and retail merchandise. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. The energy generation and storage segment includes the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
     <v>140473</v>
@@ -1335,24 +1337,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>180</v>
+    <v>175.4</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45427.603747360939</v>
+    <v>45425.999983483591</v>
     <v>0</v>
-    <v>173.22</v>
-    <v>553963345200</v>
+    <v>169</v>
+    <v>548190900439</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>179.9</v>
-    <v>45.409199999999998</v>
-    <v>177.55</v>
-    <v>173.7</v>
+    <v>170</v>
+    <v>44.043700000000001</v>
+    <v>168.47</v>
+    <v>171.89</v>
+    <v>172.76499999999999</v>
     <v>3189196000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>31903339</v>
-    <v>100618939</v>
+    <v>67018903</v>
+    <v>102788125</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -1376,9 +1379,11 @@
     <v>Powered by Refinitiv</v>
     <v>199.62</v>
     <v>164.07499999999999</v>
-    <v>1.2443</v>
-    <v>2.16</v>
-    <v>1.1524000000000001E-2</v>
+    <v>1.2402</v>
+    <v>3.23</v>
+    <v>1.7645000000000001E-2</v>
+    <v>-0.14000000000000001</v>
+    <v>-7.5160000000000005E-4</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. Its products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, and others. It also provides DarwinAI, which specializes in visual quality inspection using its Explainable AI platform.</v>
     <v>161000</v>
@@ -1386,24 +1391,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>189.73</v>
+    <v>187.1</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45427.603735937497</v>
+    <v>45425.999881249998</v>
     <v>3</v>
-    <v>187.38</v>
-    <v>2907188227200</v>
+    <v>184.62</v>
+    <v>2856432422400</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>188</v>
-    <v>29.145900000000001</v>
-    <v>187.43</v>
-    <v>189.59</v>
+    <v>185.435</v>
+    <v>28.966799999999999</v>
+    <v>183.05</v>
+    <v>186.28</v>
+    <v>186.14</v>
     <v>15334080000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>15109574</v>
-    <v>66408380</v>
+    <v>72044809</v>
+    <v>64625912</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -1447,9 +1453,11 @@
     <v>Powered by Refinitiv</v>
     <v>430.82</v>
     <v>307.58999999999997</v>
-    <v>0.89370000000000005</v>
-    <v>3.4950000000000001</v>
-    <v>8.405000000000001E-3</v>
+    <v>0.8931</v>
+    <v>-1.02</v>
+    <v>-2.4590000000000002E-3</v>
+    <v>0.52</v>
+    <v>1.2570000000000001E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -1457,25 +1465,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>420.45</v>
+    <v>418.34800000000001</v>
     <v>9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45427.603745925779</v>
+    <v>45425.999967580472</v>
     <v>10</v>
-    <v>417.27</v>
-    <v>3096001000000</v>
+    <v>410.82</v>
+    <v>3074893638320</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>417.9</v>
-    <v>36.027099999999997</v>
-    <v>415.81</v>
-    <v>419.30500000000001</v>
+    <v>418.01</v>
+    <v>35.845999999999997</v>
+    <v>414.74</v>
+    <v>413.72</v>
+    <v>414.24</v>
     <v>7432306000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>3729813</v>
-    <v>19753026</v>
+    <v>15440226</v>
+    <v>19602432</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1499,9 +1508,11 @@
     <v>Powered by Refinitiv</v>
     <v>176.42</v>
     <v>115.83</v>
-    <v>1.0084</v>
-    <v>1.2</v>
-    <v>6.9799999999999992E-3</v>
+    <v>1.0077</v>
+    <v>0.61</v>
+    <v>3.5820000000000001E-3</v>
+    <v>-0.15</v>
+    <v>-8.7770000000000003E-4</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
     <v>180895</v>
@@ -1509,24 +1520,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>174.04589999999999</v>
+    <v>170.95</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45427.603749733593</v>
+    <v>45425.99989180547</v>
     <v>13</v>
-    <v>172.03</v>
-    <v>2113993000000</v>
+    <v>165.76</v>
+    <v>2093389000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>172.03</v>
-    <v>26.3598</v>
-    <v>171.93</v>
-    <v>173.13</v>
+    <v>165.84700000000001</v>
+    <v>26.202000000000002</v>
+    <v>170.29</v>
+    <v>170.9</v>
+    <v>170.75</v>
     <v>12358000000</v>
     <v>GOOG</v>
     <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>4246545</v>
-    <v>21409807</v>
+    <v>19648585</v>
+    <v>21401872</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -1550,9 +1562,11 @@
     <v>Powered by Refinitiv</v>
     <v>531.48990000000003</v>
     <v>235.33</v>
-    <v>1.2090000000000001</v>
-    <v>2.46</v>
-    <v>5.2139999999999999E-3</v>
+    <v>1.2103999999999999</v>
+    <v>-8.19</v>
+    <v>-1.7198999999999999E-2</v>
+    <v>-1.71</v>
+    <v>-3.6540000000000001E-3</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technology that helps people connect and share, find communities, and grow businesses. The Company’s products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) and mixed reality (MR) headsets, and wearables. It operates through two segments: Family of Apps (FoA) and Reality Labs (RL). The FoA segment includes Facebook, Instagram, Messenger, Threads and WhatsApp. The RL includes augmented, mixed and virtual reality related consumer hardware, software, and content. Instagram is a place where people and creators can connect and express themselves through photos, video, and private messaging, and discover and shop from their favorite businesses. Threads is an application for text-based updates and public conversations. Its RL product offerings in VR include Meta Quest devices, and software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
     <v>69329</v>
@@ -1560,24 +1574,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>476.9</v>
+    <v>473.35</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45427.60372716406</v>
+    <v>45425.999981180466</v>
     <v>16</v>
-    <v>471.2</v>
-    <v>1196864000000</v>
+    <v>462.85</v>
+    <v>1207898000000</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>474.75</v>
-    <v>27.152999999999999</v>
-    <v>471.85</v>
-    <v>474.31</v>
+    <v>472.75</v>
+    <v>26.932099999999998</v>
+    <v>476.2</v>
+    <v>468.01</v>
+    <v>466.3</v>
     <v>2536534000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>2609080</v>
-    <v>18902565</v>
+    <v>14668798</v>
+    <v>18862351</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1601,9 +1616,11 @@
     <v>Powered by Refinitiv</v>
     <v>639</v>
     <v>329.61500000000001</v>
-    <v>1.2456</v>
-    <v>8.2651000000000003</v>
-    <v>1.3469E-2</v>
+    <v>1.244</v>
+    <v>5.72</v>
+    <v>9.3640000000000008E-3</v>
+    <v>-0.315</v>
+    <v>-5.109E-4</v>
     <v>USD</v>
     <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
     <v>13000</v>
@@ -1611,24 +1628,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>622.72990000000004</v>
+    <v>618.21900000000005</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45427.603746342189</v>
+    <v>45425.999930613281</v>
     <v>19</v>
-    <v>612.21280000000002</v>
-    <v>267988271900</v>
+    <v>606.83000000000004</v>
+    <v>265689370908</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>618.57000000000005</v>
-    <v>42.572400000000002</v>
-    <v>613.66</v>
-    <v>621.92510000000004</v>
+    <v>614.29999999999995</v>
+    <v>42.775700000000001</v>
+    <v>610.87</v>
+    <v>616.59</v>
+    <v>616.27499999999998</v>
     <v>430901200</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>783883</v>
-    <v>4241696</v>
+    <v>2086197</v>
+    <v>4218249</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -1652,9 +1670,11 @@
     <v>Powered by Refinitiv</v>
     <v>123.3916</v>
     <v>88.66</v>
-    <v>1.0482</v>
-    <v>-0.48</v>
-    <v>-5.1729999999999996E-3</v>
+    <v>1.0468</v>
+    <v>1.78</v>
+    <v>1.9573E-2</v>
+    <v>-0.22</v>
+    <v>-2.3730000000000001E-3</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>83700</v>
@@ -1662,24 +1682,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>92.62</v>
+    <v>92.77</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45427.603746099216</v>
+    <v>45425.996221689064</v>
     <v>22</v>
-    <v>91.77</v>
-    <v>139328929290</v>
+    <v>91.15</v>
+    <v>139947766480</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>92.385000000000005</v>
-    <v>27.288499999999999</v>
-    <v>92.79</v>
-    <v>92.31</v>
+    <v>91.27</v>
+    <v>27.2682</v>
+    <v>90.94</v>
+    <v>92.72</v>
+    <v>92.5</v>
     <v>1509359000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>1989559</v>
-    <v>8317536</v>
+    <v>8792060</v>
+    <v>8279299</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -1703,8 +1724,8 @@
     <v>Powered by Refinitiv</v>
     <v>31500</v>
     <v>17970</v>
-    <v>-150</v>
-    <v>-6.2890000000000003E-3</v>
+    <v>-100</v>
+    <v>-4.1929999999999997E-3</v>
     <v>KRW</v>
     <v>KakaoBank Corp is a Korea-based company principally engaged in the Internet banking business. The Company operates its business into two segments. The Banking Business Segment is engaged in the provision of deposit, loan, foreign currency remittance and payment settlement services. The Platform Business is engaged in the provision of stock accounts opening, loans from affiliates recommending and affiliated credit cards services.</v>
     <v>1552</v>
@@ -1715,21 +1736,21 @@
     <v>24000</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45426.380914351852</v>
+    <v>45426.173368055555</v>
     <v>25</v>
     <v>23700</v>
-    <v>11374570000000</v>
+    <v>11469950000000</v>
     <v>KakaoBank Corp.</v>
     <v>KakaoBank Corp.</v>
     <v>23850</v>
-    <v>30.992100000000001</v>
+    <v>32.01</v>
     <v>23850</v>
-    <v>23700</v>
+    <v>23750</v>
     <v>476921100</v>
     <v>323410</v>
     <v>KakaoBank Corp. (XKRX:323410)</v>
-    <v>672936</v>
-    <v>990000</v>
+    <v>425937</v>
+    <v>956860</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -1761,6 +1782,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1781,6 +1804,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1820,6 +1844,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1841,6 +1867,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1897,7 +1924,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1908,13 +1935,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1941,7 +1971,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="43">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1952,13 +1982,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2068,13 +2101,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -2114,6 +2153,9 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="8">
       <v>Powered by Refinitiv</v>
@@ -2144,7 +2186,7 @@
       <v>9</v>
       <v>4</v>
     </spb>
-    <spb s="4">
+    <spb s="10">
       <v>Delayed 20 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
@@ -2156,7 +2198,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2194,6 +2236,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2201,6 +2246,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -2235,6 +2283,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2259,6 +2310,13 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -4002,7 +4060,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="14"/>
@@ -4035,11 +4093,11 @@
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" ref="C2">_FV(A2,"Price")</f>
-        <v>173.7</v>
+        <v>171.89</v>
       </c>
       <c r="D2" s="9" cm="1">
         <f t="array" ref="D2">_FV(A2,"Change (%)",TRUE)</f>
-        <v>-2.1684000000000002E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -4052,11 +4110,11 @@
       </c>
       <c r="C3" s="5" cm="1">
         <f t="array" ref="C3">_FV(A3,"Price")</f>
-        <v>189.59</v>
+        <v>186.28</v>
       </c>
       <c r="D3" s="11" cm="1">
         <f t="array" ref="D3">_FV(A3,"Change (%)",TRUE)</f>
-        <v>1.1524000000000001E-2</v>
+        <v>1.7645000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -4068,11 +4126,11 @@
       </c>
       <c r="C4" s="5" cm="1">
         <f t="array" ref="C4">_FV(A4,"Price")</f>
-        <v>419.30500000000001</v>
+        <v>413.72</v>
       </c>
       <c r="D4" s="11" cm="1">
         <f t="array" ref="D4">_FV(A4,"Change (%)",TRUE)</f>
-        <v>8.405000000000001E-3</v>
+        <v>-2.4590000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -4084,11 +4142,11 @@
       </c>
       <c r="C5" s="5" cm="1">
         <f t="array" ref="C5">_FV(A5,"Price")</f>
-        <v>173.13</v>
+        <v>170.9</v>
       </c>
       <c r="D5" s="11" cm="1">
         <f t="array" ref="D5">_FV(A5,"Change (%)",TRUE)</f>
-        <v>6.9799999999999992E-3</v>
+        <v>3.5820000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
@@ -4100,11 +4158,11 @@
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_FV(A6,"Price")</f>
-        <v>474.31</v>
+        <v>468.01</v>
       </c>
       <c r="D6" s="11" cm="1">
         <f t="array" ref="D6">_FV(A6,"Change (%)",TRUE)</f>
-        <v>5.2139999999999999E-3</v>
+        <v>-1.7198999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -4116,11 +4174,11 @@
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" ref="C7">_FV(A7,"Price")</f>
-        <v>621.92510000000004</v>
+        <v>616.59</v>
       </c>
       <c r="D7" s="11" cm="1">
         <f t="array" ref="D7">_FV(A7,"Change (%)",TRUE)</f>
-        <v>1.3469E-2</v>
+        <v>9.3640000000000008E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -4132,11 +4190,11 @@
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" ref="C8">_FV(A8,"Price")</f>
-        <v>92.31</v>
+        <v>92.72</v>
       </c>
       <c r="D8" s="11" cm="1">
         <f t="array" ref="D8">_FV(A8,"Change (%)",TRUE)</f>
-        <v>-5.1729999999999996E-3</v>
+        <v>1.9573E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="46" thickBot="1">
@@ -4148,11 +4206,11 @@
       </c>
       <c r="C9" s="14" cm="1">
         <f t="array" ref="C9">_FV(A9,"Price")</f>
-        <v>23700</v>
+        <v>23750</v>
       </c>
       <c r="D9" s="15" cm="1">
         <f t="array" ref="D9">_FV(A9,"Change (%)",TRUE)</f>
-        <v>-6.2890000000000003E-3</v>
+        <v>-4.1929999999999997E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4166,7 +4224,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
